--- a/APM files/141463953/Imports Results/141463953 IMPORT 2.2 clone std into pkg_result copy_result.xlsx
+++ b/APM files/141463953/Imports Results/141463953 IMPORT 2.2 clone std into pkg_result copy_result.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -36,8 +36,36 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -52,8 +80,28 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="06B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="06B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,15 +109,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -396,17 +449,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>403273854</t>
+          <t>403325307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Flex 2 days (OTA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -421,7 +474,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P-plspj</t>
+          <t>P-ylc99</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -643,17 +696,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>403273856</t>
+          <t>403325308</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Non-Ref (-10%) - 2 days (OTA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -668,7 +721,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P-rqxo5</t>
+          <t>P-r7ajj</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -890,17 +943,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>403272809</t>
+          <t>403324975</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P-Non-r</t>
+          <t>P-Non-refundable</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1137,17 +1190,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>403273858</t>
+          <t>403325309</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Flex 2 days (OTA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1162,7 +1215,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P-mdmt4</t>
+          <t>P-vf6zy</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1384,17 +1437,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>403273860</t>
+          <t>403325310</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Flex 7 days (OTA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1409,7 +1462,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P-99k3j</t>
+          <t>P-6uh5u</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1631,17 +1684,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>403273863</t>
+          <t>403325311</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Non-Ref (-10%) - 7 days (OTA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1656,7 +1709,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P-jf2li</t>
+          <t>P-a6b76</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1878,17 +1931,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>403273865</t>
+          <t>403325312</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Non-Ref (-10%) - 2 days (OTA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1903,7 +1956,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P-znijz</t>
+          <t>P-focg4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2115,27 +2168,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>112775620</t>
+          <t>101330302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>326592745</t>
+          <t>324042649</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>403273867</t>
+          <t>403325313</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P-Guest</t>
+          <t>P-Guesty Flex 2 days (OTA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Standalone</t>
+          <t>Package</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2150,7 +2203,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P-u0s1v</t>
+          <t>P-3tc0o</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2160,169 +2213,169 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NonSmoking</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Balcony</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Standalone FeeSet (A12.00 C12.00)</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>48H None FullCostOfStay</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>NonSmoking</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Apartment</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Standalone FeeSet (A10.00 C10.00)</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>168H None FullCostOfStay</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AQ9" t="inlineStr">
         <is>
           <t>28</t>
@@ -2335,7 +2388,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>EC Default 18%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2345,7 +2398,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment, Balcony</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2362,245 +2415,739 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>105970505</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>324928603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>403325195</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P-Standard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Package</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P-RateC</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NonSmoking</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Single Room</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Extra person fee 0 2024-06-14T13:01:37.244Z</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>Refundable Policy</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Standard Single Room</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Room Type unchanged; Rate Plan updated; Warning - Matched rate plan was found; </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>112775620</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>326592745</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>403273870</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>P-Guest</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>403325314</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P-Guesty Flex 7 days (OTA)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Package</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>P-5ctjr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P-fglsr</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>NonSmoking</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Apartment</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>Standalone FeeSet (A10.00 C10.00)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>168H None FullCostOfStay</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>EC Default 18%</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Room Type unchanged; Rate Plan created; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>112775620</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>326592745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>403325315</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P-Guesty Non-Ref (-10%) - 7 days (OTA)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Package</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P-t08m5</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NonSmoking</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Standalone FeeSet (A10.00 C10.00)</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>Non Refundable Policy_EC_Tue May 06 15:30:20 UTC 2025</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>EC Default 18%</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Apartment</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t xml:space="preserve">Room Type unchanged; Rate Plan created; </t>
         </is>
